--- a/excel/import-data-utama_pd.xlsx
+++ b/excel/import-data-utama_pd.xlsx
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>JENIS KELAMIN</t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>NO. THP</t>
+  </si>
+  <si>
+    <t>UCUP</t>
   </si>
 </sst>
 </file>
@@ -918,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,12 +1043,59 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>320540</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2018</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2">
+        <v>171810309</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6">
+        <v>37063</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3">
       <formula1>"Laki-laki,Perempuan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
       <formula1>"Islam,Kristen,Khatolik,Hindu,Budha"</formula1>
     </dataValidation>
   </dataValidations>

--- a/excel/import-data-utama_pd.xlsx
+++ b/excel/import-data-utama_pd.xlsx
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>JENIS KELAMIN</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>UCUP</t>
+  </si>
+  <si>
+    <t>00145294</t>
   </si>
 </sst>
 </file>
@@ -924,7 +927,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,10 +1057,10 @@
         <v>2018</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2">
-        <v>171810309</v>
+        <v>171855309</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>22</v>

--- a/excel/import-data-utama_pd.xlsx
+++ b/excel/import-data-utama_pd.xlsx
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>JENIS KELAMIN</t>
   </si>
@@ -494,6 +494,12 @@
   </si>
   <si>
     <t>00145294</t>
+  </si>
+  <si>
+    <t>3205402108010000</t>
+  </si>
+  <si>
+    <t>3205106707020008</t>
   </si>
 </sst>
 </file>
@@ -596,9 +602,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,6 +621,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -927,7 +933,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,49 +956,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1000,13 +1006,13 @@
       <c r="A2" s="2">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <v>3205402108010000</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3">
         <v>2017</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2">
@@ -1021,25 +1027,25 @@
       <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>37063</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="P2" s="1"/>
@@ -1050,17 +1056,17 @@
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>320540</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3">
         <v>2018</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2">
-        <v>171855309</v>
+        <v>171818309</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>22</v>
@@ -1071,25 +1077,25 @@
       <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>37063</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>20</v>
       </c>
     </row>

--- a/excel/import-data-utama_pd.xlsx
+++ b/excel/import-data-utama_pd.xlsx
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>JENIS KELAMIN</t>
   </si>
@@ -500,6 +500,15 @@
   </si>
   <si>
     <t>3205106707020008</t>
+  </si>
+  <si>
+    <t>001456794</t>
+  </si>
+  <si>
+    <t>UDIN</t>
+  </si>
+  <si>
+    <t>3205106707020009</t>
   </si>
 </sst>
 </file>
@@ -930,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1013,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>24</v>
@@ -1099,12 +1108,59 @@
         <v>20</v>
       </c>
     </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2">
+        <v>171814309</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="5">
+        <v>37063</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
       <formula1>"Laki-laki,Perempuan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>"Islam,Kristen,Khatolik,Hindu,Budha"</formula1>
     </dataValidation>
   </dataValidations>
